--- a/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3110594998441553</v>
+        <v>0.3158343665854325</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4092642240259883</v>
+        <v>0.4079537989288629</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4023676785103548</v>
+        <v>0.4052418934019283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06591550152355666</v>
+        <v>0.06530826880342241</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4245161530198676</v>
+        <v>0.4188128567201243</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5441763658252249</v>
+        <v>0.5434674607300534</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4105900574054928</v>
+        <v>0.4108375293399902</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09942459250748918</v>
+        <v>0.09944152177582821</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3841913653889847</v>
+        <v>0.3844982080935798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4948617710229782</v>
+        <v>0.4930864666354458</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4217550667657224</v>
+        <v>0.4191798981137462</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0872580140754943</v>
+        <v>0.08860411772018646</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4111279523422102</v>
+        <v>0.4086471342655137</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5069839209188922</v>
+        <v>0.5067492958078074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5030186836401809</v>
+        <v>0.5050158304510132</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1110123370490862</v>
+        <v>0.1110107724376929</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5137060967910898</v>
+        <v>0.5125051236034299</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.633717856048867</v>
+        <v>0.6335123615387309</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5053311002785573</v>
+        <v>0.5042827274669643</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1428501755816254</v>
+        <v>0.1424804947018649</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4489947134901243</v>
+        <v>0.4528175988377039</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5591836323866229</v>
+        <v>0.5578182288382978</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4876445731172695</v>
+        <v>0.4887363346808684</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1184261718271495</v>
+        <v>0.1202678413600828</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4565330460677047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1175307719399497</v>
+        <v>0.1175307719399498</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4869554966879506</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3387062044165961</v>
+        <v>0.3378281618007177</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4506836112745808</v>
+        <v>0.449116638270972</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4173569207264979</v>
+        <v>0.4127595859963112</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09718506145171937</v>
+        <v>0.09349857430801316</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4486675709661391</v>
+        <v>0.4476596283769868</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5864273196422507</v>
+        <v>0.5871526152866564</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5191473027050292</v>
+        <v>0.5132531122982241</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1523916787338685</v>
+        <v>0.1525230472156284</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4037450083257296</v>
+        <v>0.4040281239744299</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5359054301928223</v>
+        <v>0.5342095933482456</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.481069955102295</v>
+        <v>0.4824131570907909</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1302929672321141</v>
+        <v>0.1293982167201607</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4194872172287536</v>
+        <v>0.42335609662384</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5335823943492128</v>
+        <v>0.532217591304409</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5007303623979843</v>
+        <v>0.502992175042296</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1421862203171113</v>
+        <v>0.1427879382515276</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5300757847131101</v>
+        <v>0.5300311312579687</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6596415024752548</v>
+        <v>0.661282065523188</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5944156355866108</v>
+        <v>0.5907785931395932</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1931165578808494</v>
+        <v>0.1939925345264504</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4642599874127273</v>
+        <v>0.462796415543862</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.588527752343216</v>
+        <v>0.5870212927663918</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5364466308148089</v>
+        <v>0.5389452910644033</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1611793428695353</v>
+        <v>0.162561863743608</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3136975685362318</v>
+        <v>0.3126209508985373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.465497063112434</v>
+        <v>0.4688406982592887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4126266417738842</v>
+        <v>0.408979169216054</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04822266973321126</v>
+        <v>0.04739986433044192</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3936247247502628</v>
+        <v>0.3922397415590524</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6278607442231185</v>
+        <v>0.6308634893768228</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4992853465119629</v>
+        <v>0.4996502922563154</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09971808639273524</v>
+        <v>0.1000985700218891</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3677402923242979</v>
+        <v>0.3686486110633964</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5699817405382096</v>
+        <v>0.5724561758785001</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4711351359836901</v>
+        <v>0.4741893563872455</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08013971151726905</v>
+        <v>0.07985118652231622</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4118049893002785</v>
+        <v>0.4111151233873341</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5640006652692351</v>
+        <v>0.56632378311775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5068978635863328</v>
+        <v>0.5104266606001764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08989364249295791</v>
+        <v>0.08602336695268281</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4842936856984938</v>
+        <v>0.4809425675512966</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7172210740644129</v>
+        <v>0.7148777101527575</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5900002652661037</v>
+        <v>0.5913931984049691</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1424012247126632</v>
+        <v>0.1431095909504229</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4348769505866171</v>
+        <v>0.435181706290372</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6341358271436389</v>
+        <v>0.6396586439175137</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.538773163553341</v>
+        <v>0.5369531701753036</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.109033322848145</v>
+        <v>0.1097664604724355</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4030176661191378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07808501914818533</v>
+        <v>0.07808501914818536</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4460775376152726</v>
@@ -1093,7 +1093,7 @@
         <v>0.4805154870721346</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.09967861892831778</v>
+        <v>0.09967861892831777</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4165116579717088</v>
@@ -1105,7 +1105,7 @@
         <v>0.4470418856447367</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08954208160832716</v>
+        <v>0.08954208160832718</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.337690781263687</v>
+        <v>0.3321099975808504</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4655164912206773</v>
+        <v>0.4617086483682814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3611070008930461</v>
+        <v>0.3623073743759442</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06256438970372252</v>
+        <v>0.06160467213718994</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4103399298241785</v>
+        <v>0.4040781211716275</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5465354837694881</v>
+        <v>0.5488546940579041</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4406824466604912</v>
+        <v>0.4409694714411134</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08648489865280633</v>
+        <v>0.08601933844570903</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3905422144043694</v>
+        <v>0.3886238308626594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5243819508650557</v>
+        <v>0.5223624888037064</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4177617512479167</v>
+        <v>0.4157168628350573</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07856232593200897</v>
+        <v>0.07833488597927946</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4204554972694832</v>
+        <v>0.4171380680722481</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5540401381475402</v>
+        <v>0.5486159199293844</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4501152310615714</v>
+        <v>0.443660126629233</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09599884517953998</v>
+        <v>0.09691518244513959</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4854556102778351</v>
+        <v>0.483911370494874</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6212215259071636</v>
+        <v>0.6263711167144334</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5223868388695854</v>
+        <v>0.5188252465481886</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1164676402374136</v>
+        <v>0.1178354645950533</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4462079541562265</v>
+        <v>0.4447971821997969</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5809334093578039</v>
+        <v>0.5775368661240678</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4784343684046605</v>
+        <v>0.4760592414142734</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1020863449315361</v>
+        <v>0.1012993611604989</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3465063125864314</v>
+        <v>0.3470171733451646</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4702518663310503</v>
+        <v>0.4715655090300852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4184355226542751</v>
+        <v>0.4206750455528657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07944826271950657</v>
+        <v>0.07795703078252395</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4395154551606719</v>
+        <v>0.438889842420479</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5954253542089712</v>
+        <v>0.5961312239354161</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4912804575366539</v>
+        <v>0.4903669355975773</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.119086193978789</v>
+        <v>0.1184181477089327</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4038147419973355</v>
+        <v>0.40450618918399</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.544704203860465</v>
+        <v>0.5450909527022776</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4655411691895628</v>
+        <v>0.4641178742951955</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1021802560258225</v>
+        <v>0.1021148609654936</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3912302554213937</v>
+        <v>0.390449371776911</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5162106913571823</v>
+        <v>0.5188369434892081</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4633770096604093</v>
+        <v>0.4655816956750568</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0995366328128586</v>
+        <v>0.09979285974013072</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4813692437366623</v>
+        <v>0.4797433182808947</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6340260702513091</v>
+        <v>0.6342134912009012</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5338602065694077</v>
+        <v>0.5316721693369082</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1387704893502798</v>
+        <v>0.1383096580329775</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4343794846732857</v>
+        <v>0.4345669172472289</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5736908535048751</v>
+        <v>0.5739189378405558</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4963613103609708</v>
+        <v>0.4959272555984746</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1164543098162483</v>
+        <v>0.1165591015863938</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>131610</v>
+        <v>133630</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>193382</v>
+        <v>192763</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>160127</v>
+        <v>161270</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>45528</v>
+        <v>45109</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>208876</v>
+        <v>206070</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>280037</v>
+        <v>279672</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>183315</v>
+        <v>183426</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>72996</v>
+        <v>73008</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>351588</v>
+        <v>351869</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>488487</v>
+        <v>486735</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>356142</v>
+        <v>353968</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>124333</v>
+        <v>126251</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>173949</v>
+        <v>172900</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>239556</v>
+        <v>239445</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>200182</v>
+        <v>200977</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>76677</v>
+        <v>76676</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>252761</v>
+        <v>252170</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>326116</v>
+        <v>326010</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>225614</v>
+        <v>225146</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>104878</v>
+        <v>104606</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>410892</v>
+        <v>414390</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>551981</v>
+        <v>550633</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>411781</v>
+        <v>412703</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>168744</v>
+        <v>171368</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>198654</v>
+        <v>198139</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>298145</v>
+        <v>297108</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>243041</v>
+        <v>240364</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>101939</v>
+        <v>98072</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>291707</v>
+        <v>291051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>437973</v>
+        <v>438515</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>372236</v>
+        <v>368010</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>163284</v>
+        <v>163424</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>499300</v>
+        <v>499650</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>754763</v>
+        <v>752375</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>625077</v>
+        <v>626822</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>276272</v>
+        <v>274375</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>246033</v>
+        <v>248302</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>352986</v>
+        <v>352083</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>291592</v>
+        <v>292909</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>149142</v>
+        <v>149773</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>344635</v>
+        <v>344606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>492653</v>
+        <v>493879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>426204</v>
+        <v>423597</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>206919</v>
+        <v>207858</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>574137</v>
+        <v>572327</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>828876</v>
+        <v>826754</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>697030</v>
+        <v>700277</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>341763</v>
+        <v>344695</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>126540</v>
+        <v>126105</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>212839</v>
+        <v>214368</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>171717</v>
+        <v>170200</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38726</v>
+        <v>38066</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>187407</v>
+        <v>186747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>333847</v>
+        <v>335443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>256290</v>
+        <v>256477</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>80997</v>
+        <v>81306</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>323422</v>
+        <v>324221</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>563683</v>
+        <v>566131</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>437906</v>
+        <v>440745</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>129452</v>
+        <v>128986</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>166114</v>
+        <v>165836</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>257877</v>
+        <v>258940</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>210949</v>
+        <v>212418</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>72191</v>
+        <v>69083</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>230575</v>
+        <v>228979</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>381362</v>
+        <v>380115</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>302855</v>
+        <v>303570</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115667</v>
+        <v>116242</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>382468</v>
+        <v>382736</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>627129</v>
+        <v>632590</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>500774</v>
+        <v>499082</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>176125</v>
+        <v>177309</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>167911</v>
+        <v>165136</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>254193</v>
+        <v>252114</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>180726</v>
+        <v>181327</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>61943</v>
+        <v>60992</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>280288</v>
+        <v>276010</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>395501</v>
+        <v>397180</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>290068</v>
+        <v>290257</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>96780</v>
+        <v>96259</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>460955</v>
+        <v>458690</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>665807</v>
+        <v>663243</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>484061</v>
+        <v>481692</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>165696</v>
+        <v>165216</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>209064</v>
+        <v>207414</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>302531</v>
+        <v>299570</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>225272</v>
+        <v>222042</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>95045</v>
+        <v>95952</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>331596</v>
+        <v>330541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>449548</v>
+        <v>453275</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>343848</v>
+        <v>341503</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>130332</v>
+        <v>131863</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>526657</v>
+        <v>524991</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>737610</v>
+        <v>733297</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>554362</v>
+        <v>551610</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>215311</v>
+        <v>213651</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>661905</v>
+        <v>662881</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1005082</v>
+        <v>1007889</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>793742</v>
+        <v>797990</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>280672</v>
+        <v>275404</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1011484</v>
+        <v>1010044</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1498584</v>
+        <v>1500361</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1147150</v>
+        <v>1145017</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>445020</v>
+        <v>442523</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1700701</v>
+        <v>1703613</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2535138</v>
+        <v>2536938</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1970146</v>
+        <v>1964123</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>742821</v>
+        <v>742346</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>747338</v>
+        <v>745847</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1103311</v>
+        <v>1108924</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>878993</v>
+        <v>883175</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>351639</v>
+        <v>352544</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1107805</v>
+        <v>1104063</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1595736</v>
+        <v>1596208</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1246574</v>
+        <v>1241465</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>518579</v>
+        <v>516857</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1829427</v>
+        <v>1830217</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2670047</v>
+        <v>2671108</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2100575</v>
+        <v>2098738</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>846590</v>
+        <v>847352</v>
       </c>
     </row>
     <row r="24">
